--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,13 +711,19 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>101300</v>
+        <v>42700</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -739,13 +746,19 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>50500</v>
+        <v>19900</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -768,13 +781,19 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50800</v>
+        <v>22800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -797,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +936,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +987,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92700</v>
+        <v>47200</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,13 +1018,19 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8600</v>
+        <v>-4500</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,13 +1072,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1036,13 +1103,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-3100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1065,13 +1138,19 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10100</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1094,25 +1173,31 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>-7100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1208,19 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>-2100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1137,11 +1228,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1243,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1278,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1313,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,13 +1488,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1523,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1593,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1702,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,81 +1768,99 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>9100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>17300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,25 +1873,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1705,22 +1908,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58700</v>
+        <v>6600</v>
       </c>
       <c r="E47" s="3">
         <v>58700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>58700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1943,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>362200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,26 +2083,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>502700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F54" s="3">
         <v>59000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>59100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,55 +2222,63 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,25 +2288,31 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2050,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>57500</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,13 +2358,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>153000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,22 +2393,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>113300</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2723,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2863,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F76" s="3">
         <v>56900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>57000</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2973,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3027,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3233,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3287,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,19 +3388,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-25900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3578,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>59100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3648,31 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>56800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,17 +718,20 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E8" s="3">
         <v>42700</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,17 +756,20 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E9" s="3">
         <v>19900</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,17 +794,20 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E10" s="3">
         <v>22800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,31 +924,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E17" s="3">
         <v>47200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,17 +1051,20 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,17 +1107,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,17 +1143,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,17 +1181,20 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,28 +1219,31 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,17 +1257,20 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1234,8 +1280,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,17 +1561,20 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,28 +1790,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E41" s="3">
         <v>70200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,17 +1864,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E43" s="3">
         <v>9100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +1893,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1809,17 +1902,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1931,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1844,25 +1940,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1879,28 +1978,31 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>294800</v>
+      </c>
+      <c r="E46" s="3">
         <v>113000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1914,16 +2016,19 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>58700</v>
       </c>
       <c r="F47" s="3">
         <v>58700</v>
@@ -1931,8 +2036,8 @@
       <c r="G47" s="3">
         <v>58700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>58700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1949,17 +2054,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,8 +2083,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1984,17 +2092,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>359600</v>
+      </c>
+      <c r="E49" s="3">
         <v>362200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2121,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,17 +2206,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>12700</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -2107,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>704800</v>
+      </c>
+      <c r="E54" s="3">
         <v>502700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,17 +2354,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2381,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2259,17 +2390,20 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2277,11 +2411,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,28 +2428,31 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E59" s="3">
         <v>41500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E60" s="3">
         <v>57500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,17 +2504,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E61" s="3">
         <v>153000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2399,16 +2542,19 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E62" s="3">
         <v>113300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2000</v>
       </c>
       <c r="F62" s="3">
         <v>2000</v>
@@ -2416,8 +2562,8 @@
       <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>2000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E66" s="3">
         <v>323600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>373800</v>
+      </c>
+      <c r="E76" s="3">
         <v>179100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57000</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,17 +3227,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3254,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,28 +3453,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,17 +3509,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3536,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,22 +3621,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E100" s="3">
         <v>97100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>59100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,28 +3903,31 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>185300</v>
+      </c>
+      <c r="E102" s="3">
         <v>56800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,20 +722,23 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E8" s="3">
         <v>49900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,20 +763,23 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E9" s="3">
         <v>23700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,20 +804,23 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E10" s="3">
         <v>26200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -953,8 +973,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E17" s="3">
         <v>54500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,20 +1081,23 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,11 +1151,11 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,20 +1180,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,20 +1221,23 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,31 +1262,34 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,20 +1303,23 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1283,8 +1329,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,11 +1643,11 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1877,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E41" s="3">
         <v>255500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,20 +1957,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E43" s="3">
         <v>7700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1989,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1905,20 +1998,23 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E44" s="3">
         <v>18300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1934,8 +2030,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1943,28 +2039,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E45" s="3">
         <v>13300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1981,31 +2080,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E46" s="3">
         <v>294800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>113000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2019,19 +2121,22 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E47" s="3">
         <v>14700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>58700</v>
       </c>
       <c r="G47" s="3">
         <v>58700</v>
@@ -2039,8 +2144,8 @@
       <c r="H47" s="3">
         <v>58700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>58700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2057,20 +2162,23 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E48" s="3">
         <v>20900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,8 +2194,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2095,20 +2203,23 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E49" s="3">
         <v>359600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>362200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2235,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,20 +2326,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12700</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2230,11 +2350,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>849400</v>
+      </c>
+      <c r="E54" s="3">
         <v>704800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>502700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,20 +2485,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
         <v>15500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2515,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2393,20 +2524,23 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2414,11 +2548,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,31 +2565,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E59" s="3">
         <v>32400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E60" s="3">
         <v>49900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,20 +2647,23 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E61" s="3">
         <v>159400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>153000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2545,19 +2688,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E62" s="3">
         <v>121800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>113300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
@@ -2565,8 +2711,8 @@
       <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>2000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>451600</v>
+      </c>
+      <c r="E66" s="3">
         <v>331000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>323600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3074,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3238,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E76" s="3">
         <v>373800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>179100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57000</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,20 +3426,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3456,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,20 +3730,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3760,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,25 +3851,28 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E100" s="3">
         <v>204400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>97100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>59100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,31 +4155,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-183500</v>
+      </c>
+      <c r="E102" s="3">
         <v>185300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -1901,8 +1901,8 @@
       <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2106,8 +2106,8 @@
       <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2352,8 +2352,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>200</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2434,8 @@
       <c r="I54" s="3">
         <v>59100</v>
       </c>
-      <c r="J54" s="3">
-        <v>200</v>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2550,8 +2550,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2591,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2632,8 +2632,8 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3">
-        <v>200</v>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2878,8 +2878,8 @@
       <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
-        <v>200</v>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3100,8 +3100,8 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3264,8 +3264,8 @@
       <c r="I76" s="3">
         <v>57000</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3693,11 +3693,11 @@
       <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4096,11 +4096,11 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3">
-        <v>59100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4178,11 +4178,11 @@
       <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,31 +726,37 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>95700</v>
+      </c>
+      <c r="F8" s="3">
         <v>58400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>49900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>42700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>46300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -766,31 +773,37 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F9" s="3">
         <v>25200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>23700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>19900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>16100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -807,31 +820,37 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F10" s="3">
         <v>33200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +890,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,23 +980,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,11 +1015,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,37 +1094,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150400</v>
+      </c>
+      <c r="F17" s="3">
         <v>63900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>54500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>47200</v>
       </c>
-      <c r="G17" s="3">
-        <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1084,31 +1137,37 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,22 +1218,22 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1183,26 +1250,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,31 +1297,37 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1265,37 +1344,43 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1306,37 +1391,43 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,37 +1485,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1429,37 +1532,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,22 +1782,22 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1675,37 +1814,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,37 +1908,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +2049,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F41" s="3">
         <v>67800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>255500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>70200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,26 +2139,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F43" s="3">
         <v>10600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,35 +2177,41 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F44" s="3">
         <v>35700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>18300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2033,44 +2224,50 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2280,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>138900</v>
+      </c>
+      <c r="F46" s="3">
         <v>132300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>294800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>113000</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,35 +2327,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F47" s="3">
         <v>17600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>14700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>58700</v>
       </c>
-      <c r="H47" s="3">
-        <v>58700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>58700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,26 +2374,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>65200</v>
+      </c>
+      <c r="F48" s="3">
         <v>26100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>20900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,35 +2412,41 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>695900</v>
+      </c>
+      <c r="F49" s="3">
         <v>655000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>359600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>362200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,17 +2459,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,34 +2562,40 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12700</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2656,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>907600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>935400</v>
+      </c>
+      <c r="F54" s="3">
         <v>849400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>704800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>502700</v>
       </c>
-      <c r="G54" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>59000</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>59100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,26 +2745,28 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>15500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,43 +2779,49 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2568,34 +2835,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>94400</v>
+      </c>
+      <c r="F59" s="3">
         <v>69800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>41500</v>
       </c>
-      <c r="G59" s="3">
-        <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2609,34 +2882,40 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F60" s="3">
         <v>91200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>49900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>57500</v>
       </c>
-      <c r="G60" s="3">
-        <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2650,26 +2929,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F61" s="3">
         <v>226500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>159400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>153000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2691,35 +2976,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>169300</v>
+      </c>
+      <c r="F62" s="3">
         <v>134100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>121800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>113300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3164,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>512900</v>
+      </c>
+      <c r="F66" s="3">
         <v>451600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>331000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>323600</v>
       </c>
-      <c r="G66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,34 +3418,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-99600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-91900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-83000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3606,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>443500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>422500</v>
+      </c>
+      <c r="F76" s="3">
         <v>397800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>373800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>179100</v>
       </c>
-      <c r="G76" s="3">
-        <v>56000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>56900</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>57000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,37 +3752,43 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,26 +3822,28 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,17 +3856,23 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,26 +4100,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-14300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,25 +4170,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3763,17 +4204,23 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,26 +4307,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-230600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,26 +4561,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>67600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>204400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>97100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,31 +4608,37 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4158,26 +4655,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-183500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>185300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>56800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,35 +733,38 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E8" s="3">
         <v>69400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>95700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,35 +783,38 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E9" s="3">
         <v>28900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,35 +833,38 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E10" s="3">
         <v>40500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>49500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,26 +1003,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1041,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1122,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E17" s="3">
         <v>62500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30800</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,35 +1170,38 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-54700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,35 +1242,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,29 +1290,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-49900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,22 +1355,22 @@
         <v>4100</v>
       </c>
       <c r="F22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3400</v>
       </c>
       <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>3400</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1350,40 +1390,43 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,40 +1440,43 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,35 +1840,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,38 +2137,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E41" s="3">
         <v>32900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>255500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,29 +2235,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E43" s="3">
         <v>16800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,29 +2285,32 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E44" s="3">
         <v>38800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2326,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2239,38 +2335,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E45" s="3">
         <v>20500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2385,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E46" s="3">
         <v>109000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>294800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>113000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,38 +2435,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E47" s="3">
         <v>16400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>58700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,29 +2485,32 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E48" s="3">
         <v>64100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2427,29 +2535,32 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>671700</v>
+      </c>
+      <c r="E49" s="3">
         <v>700100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>695900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>655000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>359600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>362200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2576,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,37 +2685,40 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E52" s="3">
         <v>18000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2785,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>907300</v>
+      </c>
+      <c r="E54" s="3">
         <v>907600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>935400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>849400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>704800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>502700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>59100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,29 +2877,30 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E57" s="3">
         <v>15100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,8 +2916,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2803,28 +2937,28 @@
         <v>3200</v>
       </c>
       <c r="E58" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="F58" s="3">
         <v>2800</v>
       </c>
       <c r="G58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2841,37 +2975,40 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E59" s="3">
         <v>65600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>69800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2888,37 +3025,40 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E60" s="3">
         <v>83800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>117800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2935,29 +3075,32 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E61" s="3">
         <v>225200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>226000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>226500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>159400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>153000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2982,38 +3125,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E62" s="3">
         <v>155300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>134100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>121800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>113300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3325,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>487400</v>
+      </c>
+      <c r="E66" s="3">
         <v>464100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>512900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>451600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>331000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>323600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,37 +3595,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-155700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,38 +3795,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>419900</v>
+      </c>
+      <c r="E76" s="3">
         <v>443500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>397800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>373800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>179100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>57000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,29 +4022,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4061,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,29 +4320,32 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,29 +4392,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-3500</v>
       </c>
       <c r="E91" s="3">
         <v>-1700</v>
       </c>
       <c r="F91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,29 +4540,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-230600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,29 +4810,32 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>67600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>204400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>97100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,20 +4860,23 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4640,8 +4889,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4661,29 +4910,32 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-183500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>185300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -2158,8 +2158,8 @@
       <c r="H41" s="3">
         <v>255500</v>
       </c>
-      <c r="I41" s="3">
-        <v>70200</v>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -2258,8 +2258,8 @@
       <c r="H43" s="3">
         <v>7700</v>
       </c>
-      <c r="I43" s="3">
-        <v>9100</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2308,8 +2308,8 @@
       <c r="H44" s="3">
         <v>18300</v>
       </c>
-      <c r="I44" s="3">
-        <v>17300</v>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2358,8 +2358,8 @@
       <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3">
-        <v>16300</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2408,8 +2408,8 @@
       <c r="H46" s="3">
         <v>294800</v>
       </c>
-      <c r="I46" s="3">
-        <v>113000</v>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2458,8 +2458,8 @@
       <c r="H47" s="3">
         <v>14700</v>
       </c>
-      <c r="I47" s="3">
-        <v>6600</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2508,8 +2508,8 @@
       <c r="H48" s="3">
         <v>20900</v>
       </c>
-      <c r="I48" s="3">
-        <v>8100</v>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2558,8 +2558,8 @@
       <c r="H49" s="3">
         <v>359600</v>
       </c>
-      <c r="I49" s="3">
-        <v>362200</v>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2708,8 +2708,8 @@
       <c r="H52" s="3">
         <v>14800</v>
       </c>
-      <c r="I52" s="3">
-        <v>12700</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2808,8 +2808,8 @@
       <c r="H54" s="3">
         <v>704800</v>
       </c>
-      <c r="I54" s="3">
-        <v>502700</v>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2898,8 +2898,8 @@
       <c r="H57" s="3">
         <v>15500</v>
       </c>
-      <c r="I57" s="3">
-        <v>11200</v>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2948,8 +2948,8 @@
       <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
-        <v>4900</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2998,8 +2998,8 @@
       <c r="H59" s="3">
         <v>32400</v>
       </c>
-      <c r="I59" s="3">
-        <v>41500</v>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -3048,8 +3048,8 @@
       <c r="H60" s="3">
         <v>49900</v>
       </c>
-      <c r="I60" s="3">
-        <v>57500</v>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -3099,7 +3099,7 @@
         <v>159400</v>
       </c>
       <c r="I61" s="3">
-        <v>153000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3148,8 +3148,8 @@
       <c r="H62" s="3">
         <v>121800</v>
       </c>
-      <c r="I62" s="3">
-        <v>113300</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -3348,8 +3348,8 @@
       <c r="H66" s="3">
         <v>331000</v>
       </c>
-      <c r="I66" s="3">
-        <v>323600</v>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3618,8 +3618,8 @@
       <c r="H72" s="3">
         <v>-91900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-83000</v>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3818,8 +3818,8 @@
       <c r="H76" s="3">
         <v>373800</v>
       </c>
-      <c r="I76" s="3">
-        <v>179100</v>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,38 +737,41 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E8" s="3">
         <v>65400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>95700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,38 +790,41 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E9" s="3">
         <v>28100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>46200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,38 +843,41 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>49500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,29 +1023,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1064,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,43 +1149,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>376800</v>
+      </c>
+      <c r="E17" s="3">
         <v>71600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30800</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1173,38 +1200,41 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-313200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-54700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,38 +1276,39 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,32 +1327,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-298700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-49900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,13 +1380,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
         <v>4100</v>
@@ -1358,22 +1398,22 @@
         <v>4100</v>
       </c>
       <c r="G22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3400</v>
       </c>
       <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>3400</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1393,43 +1433,46 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1443,43 +1486,46 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,43 +1592,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1593,43 +1645,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,38 +1910,41 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,43 +1963,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,43 +2069,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E41" s="3">
         <v>44600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>255500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>70200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,31 +2328,34 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E43" s="3">
         <v>31100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>9100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2372,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2288,31 +2381,34 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E44" s="3">
         <v>37100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>17300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2329,8 +2425,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>16300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E46" s="3">
         <v>131100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>294800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>113000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2540,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E47" s="3">
         <v>15900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>6600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>58700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,31 +2593,34 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E48" s="3">
         <v>69600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>8100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2637,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2538,31 +2646,34 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>356900</v>
+      </c>
+      <c r="E49" s="3">
         <v>671700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>695900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>655000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>359600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>362200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2579,8 +2690,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,40 +2805,43 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>18900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>12700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>575200</v>
+      </c>
+      <c r="E54" s="3">
         <v>907300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>907600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>935400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>849400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>704800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>502700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>59100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,31 +3008,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E57" s="3">
         <v>17100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>11200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2919,8 +3050,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2928,40 +3059,43 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="G58" s="3">
         <v>2800</v>
       </c>
       <c r="H58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>4900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2978,40 +3112,43 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E59" s="3">
         <v>55800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>41500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -3028,40 +3165,43 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E60" s="3">
         <v>76100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>117800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>57500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -3078,31 +3218,34 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>252500</v>
+      </c>
+      <c r="E61" s="3">
         <v>247000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>225200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>226000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>226500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>159400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>153000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3128,41 +3271,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E62" s="3">
         <v>164500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>134100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>113300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E66" s="3">
         <v>487400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>464100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>512900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>451600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>331000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>323600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,40 +3769,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-423200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-155700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>-83000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E76" s="3">
         <v>419900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>443500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>397800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>373800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>179100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>57000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,43 +4145,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,32 +4221,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,8 +4263,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,32 +4537,35 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,32 +4613,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1700</v>
       </c>
       <c r="F91" s="3">
         <v>-1700</v>
       </c>
       <c r="G91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,8 +4655,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,32 +4770,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-230600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,32 +5056,35 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E100" s="3">
         <v>22900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>67600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>204400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>97100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,23 +5109,26 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5141,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4913,32 +5162,35 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E102" s="3">
         <v>11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-183500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>185300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,44 +741,50 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F8" s="3">
         <v>63600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>65400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>69400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>95700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>58400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>49900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>42700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>46300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>35000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,44 +800,50 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F9" s="3">
         <v>36800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>28900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>46200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>25200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>23700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,44 +859,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F10" s="3">
         <v>26800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>37300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>40500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>49500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>33200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>26200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +945,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,35 +1059,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>302100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,11 +1106,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1079,8 +1118,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,49 +1201,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F17" s="3">
         <v>376800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>71600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>62500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>150400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>63900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>54500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>47200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30800</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1203,44 +1256,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-313200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-54700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1315,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,19 +1342,21 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>8700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>1500</v>
@@ -1298,23 +1365,23 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,38 +1397,44 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-298700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-49900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,44 +1456,50 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F22" s="3">
         <v>4300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4100</v>
       </c>
       <c r="G22" s="3">
         <v>4100</v>
       </c>
       <c r="H22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,49 +1515,55 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-308800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-57300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1489,49 +1574,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-44100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1633,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,49 +1692,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-264700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-56100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1648,49 +1751,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-264700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-56100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1810,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,19 +2046,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>-1500</v>
@@ -1934,23 +2073,23 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,49 +2105,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-264700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-56100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2164,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,49 +2223,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-264700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-56100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2125,55 +2282,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2346,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2396,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F41" s="3">
         <v>60100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>32900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>67800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>255500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>70200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2451,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,38 +2510,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>31100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>16800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>14200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>10600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,47 +2560,53 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F44" s="3">
         <v>33800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>37100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>38800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>39900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>35700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>18300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,56 +2619,62 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>20500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>15600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>13300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2687,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F46" s="3">
         <v>128100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>131100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>109000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>138900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>132300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>294800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,47 +2746,53 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F47" s="3">
         <v>15400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>15900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>16400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>17300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>17600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>14700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>58700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,38 +2805,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F48" s="3">
         <v>56400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>69600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>64100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>65200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>20900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,47 +2855,53 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>357700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>359800</v>
+      </c>
+      <c r="F49" s="3">
         <v>356900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>671700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>700100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>695900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>655000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>359600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>362200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,17 +2914,23 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,46 +3041,52 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>18900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>18000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>18200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2861,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3159,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>552500</v>
+      </c>
+      <c r="F54" s="3">
         <v>575200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>907300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>907600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>935400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>849400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>704800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>502700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>59100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,38 +3268,40 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F57" s="3">
         <v>15300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>20600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>18600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>15500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,55 +3314,61 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3115,46 +3382,52 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F59" s="3">
         <v>59300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>55800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>65600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>94400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>69800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>32400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>41500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3168,46 +3441,52 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>82900</v>
+      </c>
+      <c r="F60" s="3">
         <v>76900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>76100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>83800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>117800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>91200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>49900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>57500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3221,38 +3500,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>230200</v>
+      </c>
+      <c r="F61" s="3">
         <v>252500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>247000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>225200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>226000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>226500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>159400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>153000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3274,47 +3559,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>84300</v>
+      </c>
+      <c r="F62" s="3">
         <v>95400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>164500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>155300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>169300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>134100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>121800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>113300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3618,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3795,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>397200</v>
+      </c>
+      <c r="F66" s="3">
         <v>424500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>487400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>464100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>512900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>451600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>331000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>323600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,46 +4113,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-471100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-423200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-158500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-150100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-155700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-99600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-91900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-83000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4349,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>155300</v>
+      </c>
+      <c r="F76" s="3">
         <v>150600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>419900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>443500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>422500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>397800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>373800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>179100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>57000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4467,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,49 +4531,55 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-264700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-56100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4590,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,38 +4617,40 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,17 +4663,23 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,38 +4967,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-35500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-20300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-14300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +5026,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,37 +5053,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-13600</v>
       </c>
       <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4658,17 +5099,23 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,38 +5226,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F94" s="3">
         <v>16300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-230600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5285,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5312,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,38 +5544,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F100" s="3">
         <v>13600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>22900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>67600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>204400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>97100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,29 +5603,35 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5144,11 +5641,11 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5165,38 +5662,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="F102" s="3">
         <v>15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-36500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-183500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>185300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>56800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5719,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,47 +748,50 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51400</v>
+        <v>35100</v>
       </c>
       <c r="E8" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F8" s="3">
         <v>68500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63600</v>
       </c>
-      <c r="G8" s="3">
-        <v>65400</v>
-      </c>
       <c r="H8" s="3">
+        <v>47900</v>
+      </c>
+      <c r="I8" s="3">
         <v>69400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>95700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>58400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,47 +810,50 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>30100</v>
+        <v>10900</v>
       </c>
       <c r="E9" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F9" s="3">
         <v>35900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36800</v>
       </c>
-      <c r="G9" s="3">
-        <v>28100</v>
-      </c>
       <c r="H9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I9" s="3">
         <v>28900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,47 +872,50 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>21300</v>
+        <v>24200</v>
       </c>
       <c r="E10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F10" s="3">
         <v>32600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26800</v>
       </c>
-      <c r="G10" s="3">
-        <v>37300</v>
-      </c>
       <c r="H10" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I10" s="3">
         <v>40500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,38 +1082,41 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>141000</v>
       </c>
       <c r="E14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>302100</v>
       </c>
-      <c r="G14" s="3">
-        <v>2600</v>
-      </c>
       <c r="H14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1132,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,52 +1229,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82700</v>
+        <v>183300</v>
       </c>
       <c r="E17" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F17" s="3">
         <v>83000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>376800</v>
       </c>
-      <c r="G17" s="3">
-        <v>71600</v>
-      </c>
       <c r="H17" s="3">
+        <v>53500</v>
+      </c>
+      <c r="I17" s="3">
         <v>62500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>150400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30800</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1262,47 +1289,50 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31300</v>
+        <v>-148200</v>
       </c>
       <c r="E18" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-313200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I18" s="3">
         <v>6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,47 +1377,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,41 +1437,44 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-32300</v>
+        <v>-136900</v>
       </c>
       <c r="E21" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-298700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
         <v>10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-49900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,22 +1499,25 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4100</v>
       </c>
       <c r="H22" s="3">
         <v>4100</v>
@@ -1486,22 +1526,22 @@
         <v>4100</v>
       </c>
       <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3400</v>
       </c>
       <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>3400</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1521,52 +1561,55 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39400</v>
+        <v>-144300</v>
       </c>
       <c r="E23" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-308800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1580,52 +1623,55 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-44100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-500</v>
-      </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,52 +1747,55 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-37700</v>
+        <v>-134300</v>
       </c>
       <c r="E26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-264700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1757,52 +1809,55 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37700</v>
+        <v>-134300</v>
       </c>
       <c r="E27" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-264700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,31 +1933,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-1400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,47 +2119,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,52 +2181,55 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-264700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,52 +2305,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-264700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,50 +2484,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E41" s="3">
         <v>24700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>255500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,41 +2606,44 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E43" s="3">
         <v>15100</v>
       </c>
-      <c r="E43" s="3">
-        <v>21000</v>
-      </c>
       <c r="F43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G43" s="3">
         <v>13900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2659,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2575,41 +2668,44 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>18600</v>
       </c>
-      <c r="E44" s="3">
-        <v>33100</v>
-      </c>
       <c r="F44" s="3">
+        <v>20600</v>
+      </c>
+      <c r="G44" s="3">
         <v>33800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>37100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2721,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2634,50 +2730,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17700</v>
       </c>
-      <c r="E45" s="3">
-        <v>17300</v>
-      </c>
       <c r="F45" s="3">
+        <v>59700</v>
+      </c>
+      <c r="G45" s="3">
         <v>20300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,50 +2792,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E46" s="3">
         <v>76200</v>
       </c>
-      <c r="E46" s="3">
-        <v>103000</v>
-      </c>
       <c r="F46" s="3">
+        <v>118600</v>
+      </c>
+      <c r="G46" s="3">
         <v>128100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>294800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,50 +2854,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E47" s="3">
         <v>13000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>58700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,41 +2916,44 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E48" s="3">
         <v>58400</v>
       </c>
-      <c r="E48" s="3">
-        <v>58600</v>
-      </c>
       <c r="F48" s="3">
+        <v>41900</v>
+      </c>
+      <c r="G48" s="3">
         <v>56400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2870,41 +2978,44 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E49" s="3">
         <v>357700</v>
       </c>
-      <c r="E49" s="3">
-        <v>359800</v>
-      </c>
       <c r="F49" s="3">
+        <v>596000</v>
+      </c>
+      <c r="G49" s="3">
         <v>356900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>671700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>695900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>655000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>359600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>362200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,8 +3031,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,49 +3164,52 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
         <v>15600</v>
       </c>
-      <c r="E52" s="3">
-        <v>17300</v>
-      </c>
       <c r="F52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,50 +3288,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>382500</v>
+      </c>
+      <c r="E54" s="3">
         <v>521000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>552500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>575200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>907300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>907600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>935400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>849400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>704800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>502700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>59100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,41 +3400,42 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>12700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J57" s="3">
         <v>20600</v>
       </c>
-      <c r="F57" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>15100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>20600</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,8 +3451,8 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3329,49 +3460,52 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3200</v>
       </c>
       <c r="H58" s="3">
         <v>3200</v>
       </c>
       <c r="I58" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="J58" s="3">
         <v>2800</v>
       </c>
       <c r="K58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3388,49 +3522,52 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
-        <v>60300</v>
-      </c>
       <c r="F59" s="3">
+        <v>111300</v>
+      </c>
+      <c r="G59" s="3">
         <v>59300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>69800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3447,49 +3584,52 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E60" s="3">
         <v>64200</v>
       </c>
-      <c r="E60" s="3">
-        <v>82900</v>
-      </c>
       <c r="F60" s="3">
+        <v>92900</v>
+      </c>
+      <c r="G60" s="3">
         <v>76900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>117800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3506,41 +3646,44 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E61" s="3">
         <v>190500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>230200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>252500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>247000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>225200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>226000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>226500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>159400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>153000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3565,50 +3708,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E62" s="3">
         <v>83200</v>
       </c>
-      <c r="E62" s="3">
-        <v>84300</v>
-      </c>
       <c r="F62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="G62" s="3">
         <v>95400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>164500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>169300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>134100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,50 +3956,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E66" s="3">
         <v>337700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>397200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>424500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>487400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>464100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>512900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>451600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>331000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>323600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,49 +4290,52 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-471100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-433400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-423200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-155700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,50 +4538,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E76" s="3">
         <v>183300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>150600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>419900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>443500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>422500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>397800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>373800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>179100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>57000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,52 +4729,55 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-264700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,41 +4817,42 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4868,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,41 +5187,44 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,41 +5275,42 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
         <v>-1900</v>
       </c>
       <c r="F91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1700</v>
       </c>
       <c r="I91" s="3">
         <v>-1700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5105,8 +5326,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,41 +5459,44 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-230600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,41 +5793,44 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>67600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>204400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>97100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5618,23 +5867,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5647,8 +5896,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5668,41 +5917,44 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-183500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>185300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
   <si>
     <t>PLBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,50 +752,53 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>35100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>68500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,41 +829,41 @@
         <v>10900</v>
       </c>
       <c r="E9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F9" s="3">
         <v>21800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,50 +882,53 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>24200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,41 +1102,44 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>141000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>302100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1155,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,55 +1256,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E17" s="3">
         <v>183300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>376800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>150400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30800</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1292,50 +1319,53 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-148200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-313200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-54700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,50 +1411,51 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,44 +1474,47 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-136900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-298700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-49900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,25 +1539,28 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
       </c>
       <c r="I22" s="3">
         <v>4100</v>
@@ -1529,22 +1569,22 @@
         <v>4100</v>
       </c>
       <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3400</v>
       </c>
       <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>3400</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1564,55 +1604,58 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-144300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-308800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-57300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1626,55 +1669,58 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-44100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,55 +1799,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-134300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-264700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-56100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1812,55 +1864,58 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-134300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-264700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-56100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,34 +1994,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1400</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,50 +2189,53 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,55 +2254,58 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-133900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-264700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-56100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,55 +2384,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-133900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-264700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-56100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,53 +2571,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
         <v>34400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>255500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,44 +2699,47 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
         <v>16400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2755,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2671,44 +2764,47 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>37100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>38800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2820,8 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2733,53 +2829,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E45" s="3">
         <v>30600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,53 +2894,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E46" s="3">
         <v>95500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>118600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>128100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>294800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,53 +2959,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E47" s="3">
         <v>9200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>58700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,44 +3024,47 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E48" s="3">
         <v>42900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>69600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2972,8 +3080,8 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2981,44 +3089,47 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E49" s="3">
         <v>218200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>357700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>596000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>356900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>671700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>695900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>655000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>359600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>362200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3034,8 +3145,8 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,52 +3284,55 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
         <v>16900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,53 +3414,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E54" s="3">
         <v>382500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>521000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>552500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>575200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>907300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>907600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>935400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>849400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>704800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>502700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>59100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,44 +3531,45 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3454,8 +3585,8 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3472,43 +3606,43 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3200</v>
       </c>
       <c r="I58" s="3">
         <v>3200</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
       </c>
       <c r="L58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3525,52 +3659,55 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E59" s="3">
         <v>60600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>69800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3587,52 +3724,55 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E60" s="3">
         <v>73700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>117800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3649,44 +3789,47 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E61" s="3">
         <v>186500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>190500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>230200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>252500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>247000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>225200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>226000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>226500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>159400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>153000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3711,53 +3854,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E62" s="3">
         <v>69800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>169300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>113300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,53 +4114,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>322200</v>
+      </c>
+      <c r="E66" s="3">
         <v>329800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>337700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>397200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>424500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>487400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>464100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>512900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>451600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>331000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>323600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,52 +4464,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-605000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-471100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-433400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-423200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-158500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-155700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-83000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,53 +4724,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>52800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>183300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>419900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>443500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>422500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>397800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>373800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>179100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
         <v>57000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,55 +4924,58 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-133900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-264700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-56100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,44 +5016,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
       </c>
       <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4871,8 +5070,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,44 +5404,47 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,44 +5496,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1900</v>
       </c>
       <c r="F91" s="3">
         <v>-1900</v>
       </c>
       <c r="G91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1700</v>
       </c>
       <c r="J91" s="3">
         <v>-1700</v>
       </c>
       <c r="K91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5329,8 +5550,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,44 +5689,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-230600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,44 +6039,47 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>11200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>67600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>204400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>97100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,35 +6104,38 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5899,8 +6148,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5920,44 +6169,47 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-183500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>185300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
